--- a/ERP MVC/Controle Dev.xlsx
+++ b/ERP MVC/Controle Dev.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ERP\ERP MVC\ERP MVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Ajustes" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Pedido</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Validação de campos obrigatórios e tipo de campos válidos como cfp, data, etc</t>
-  </si>
-  <si>
-    <t>Parado</t>
   </si>
   <si>
     <t>Validação de campos obrigatórios e tipo de campos válidos como  data, etc</t>
@@ -306,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -418,11 +409,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -432,18 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,24 +732,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -786,15 +774,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>42</v>
+      <c r="B4" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10">
         <v>41685</v>
@@ -802,18 +790,18 @@
       <c r="E4" s="10">
         <v>41686</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>38</v>
+      <c r="F4" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
@@ -823,18 +811,18 @@
       <c r="E5" s="10">
         <v>41686</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>38</v>
+      <c r="F5" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
@@ -844,22 +832,22 @@
       <c r="E6" s="10">
         <v>41686</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>38</v>
+      <c r="F6" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>43</v>
+      <c r="B7" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="10">
         <v>41685</v>
@@ -867,20 +855,20 @@
       <c r="E7" s="10">
         <v>41686</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>38</v>
+      <c r="F7" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="10">
         <v>41685</v>
@@ -888,20 +876,20 @@
       <c r="E8" s="10">
         <v>41686</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>38</v>
+      <c r="F8" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="10">
         <v>41685</v>
@@ -909,22 +897,22 @@
       <c r="E9" s="10">
         <v>41686</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>38</v>
+      <c r="F9" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>44</v>
+      <c r="B10" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10">
         <v>41685</v>
@@ -932,20 +920,20 @@
       <c r="E10" s="10">
         <v>41686</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>50</v>
+      <c r="F10" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="10">
         <v>41685</v>
@@ -953,20 +941,20 @@
       <c r="E11" s="10">
         <v>41686</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>50</v>
+      <c r="F11" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="10">
         <v>41685</v>
@@ -974,22 +962,22 @@
       <c r="E12" s="10">
         <v>41686</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>50</v>
+      <c r="F12" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>45</v>
+      <c r="B13" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10">
         <v>41684</v>
@@ -997,20 +985,20 @@
       <c r="E13" s="10">
         <v>41686</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>49</v>
+      <c r="F13" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10">
         <v>41684</v>
@@ -1018,20 +1006,20 @@
       <c r="E14" s="10">
         <v>41686</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>49</v>
+      <c r="F14" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="10">
         <v>41684</v>
@@ -1039,22 +1027,22 @@
       <c r="E15" s="10">
         <v>41686</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>49</v>
+      <c r="F15" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>46</v>
+      <c r="B16" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="10">
         <v>41684</v>
@@ -1062,20 +1050,20 @@
       <c r="E16" s="10">
         <v>41686</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>49</v>
+      <c r="F16" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="10">
         <v>41684</v>
@@ -1083,20 +1071,20 @@
       <c r="E17" s="10">
         <v>41686</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>49</v>
+      <c r="F17" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="10">
         <v>41684</v>
@@ -1104,11 +1092,11 @@
       <c r="E18" s="10">
         <v>41686</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>49</v>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,7 +1107,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -1129,7 +1117,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
@@ -1139,7 +1127,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -1149,7 +1137,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -1159,7 +1147,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -1169,7 +1157,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -1179,7 +1167,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -1189,7 +1177,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
@@ -1199,7 +1187,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="19"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
@@ -1209,7 +1197,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -1219,7 +1207,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -1229,7 +1217,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
@@ -1239,7 +1227,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="19"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
@@ -1249,7 +1237,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
@@ -1259,7 +1247,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
@@ -1269,7 +1257,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -1279,7 +1267,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
@@ -1289,7 +1277,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
@@ -1299,7 +1287,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="19"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
@@ -1309,7 +1297,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="19"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
@@ -1319,7 +1307,7 @@
       <c r="C39" s="8"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="19"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
@@ -1329,7 +1317,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="19"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
@@ -1339,7 +1327,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="19"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
@@ -1349,7 +1337,7 @@
       <c r="C42" s="8"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="19"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
@@ -1359,7 +1347,7 @@
       <c r="C43" s="8"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="19"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
@@ -1369,7 +1357,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
@@ -1379,7 +1367,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="19"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
@@ -1389,7 +1377,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
-      <c r="F46" s="19"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
@@ -1399,7 +1387,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="19"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
@@ -1409,7 +1397,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="19"/>
+      <c r="F48" s="15"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
@@ -1419,7 +1407,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="19"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
@@ -1429,7 +1417,7 @@
       <c r="C50" s="8"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="19"/>
+      <c r="F50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/ERP MVC/Controle Dev.xlsx
+++ b/ERP MVC/Controle Dev.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Ajustes" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>Pedido</t>
   </si>
@@ -240,6 +240,108 @@
   </si>
   <si>
     <t>Em Andamento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadastro, Edição, Lista e Exclusão de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agendamento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadastro, Edição, Lista e Exclusão de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Produtos</t>
+    </r>
+  </si>
+  <si>
+    <t>Controle de usuário, login e acesso a paginas conforme perfil do usuario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadastro, Edição, Lista e Exclusão de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Representantes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadastro, Edição, Lista e Exclusão de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pedido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadastro, Edição, Lista e Exclusão de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orçamento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cadastro, Edição, Lista e Exclusão de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPIs</t>
+    </r>
+  </si>
+  <si>
+    <t>Funcionamento e adequar aos perfis e paginas do sistema</t>
   </si>
 </sst>
 </file>
@@ -380,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -432,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -790,8 +895,8 @@
       <c r="E4" s="10">
         <v>41686</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>49</v>
+      <c r="F4" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>46</v>
@@ -811,14 +916,14 @@
       <c r="E5" s="10">
         <v>41686</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>49</v>
+      <c r="F5" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -832,14 +937,14 @@
       <c r="E6" s="10">
         <v>41686</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>49</v>
+      <c r="F6" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -855,8 +960,8 @@
       <c r="E7" s="10">
         <v>41686</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>49</v>
+      <c r="F7" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>46</v>
@@ -876,14 +981,14 @@
       <c r="E8" s="10">
         <v>41686</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>49</v>
+      <c r="F8" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -897,8 +1002,8 @@
       <c r="E9" s="10">
         <v>41686</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>49</v>
+      <c r="F9" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>46</v>
@@ -1103,193 +1208,340 @@
       <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="10">
+        <v>41698</v>
+      </c>
       <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="10">
+        <v>41698</v>
+      </c>
       <c r="F20" s="15"/>
+      <c r="G20" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="10">
+        <v>41698</v>
+      </c>
       <c r="F21" s="15"/>
+      <c r="G21" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="E22" s="10">
+        <v>41698</v>
+      </c>
       <c r="F22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="10">
+        <v>41698</v>
+      </c>
       <c r="F23" s="15"/>
+      <c r="G23" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="E24" s="10">
+        <v>41698</v>
+      </c>
       <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="E25" s="10">
+        <v>41698</v>
+      </c>
       <c r="F25" s="15"/>
+      <c r="G25" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="10">
+        <v>41698</v>
+      </c>
       <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="10">
+        <v>41698</v>
+      </c>
       <c r="F27" s="15"/>
+      <c r="G27" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="10">
+        <v>41698</v>
+      </c>
       <c r="F28" s="15"/>
+      <c r="G28" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="10">
+        <v>41698</v>
+      </c>
       <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>27</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="10">
+        <v>41698</v>
+      </c>
       <c r="F30" s="15"/>
+      <c r="G30" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="10">
+        <v>41698</v>
+      </c>
       <c r="F31" s="15"/>
+      <c r="G31" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>29</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="E32" s="10">
+        <v>41698</v>
+      </c>
       <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>30</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="E33" s="10">
+        <v>41698</v>
+      </c>
       <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>31</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="E34" s="10">
+        <v>41698</v>
+      </c>
       <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>32</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="E35" s="10">
+        <v>41698</v>
+      </c>
       <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>33</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="E36" s="10">
+        <v>41698</v>
+      </c>
       <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>34</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="10">
+        <v>41698</v>
+      </c>
       <c r="F37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>35</v>
       </c>
@@ -1299,7 +1551,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>36</v>
       </c>
@@ -1309,7 +1561,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>37</v>
       </c>
@@ -1319,7 +1571,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>38</v>
       </c>
@@ -1329,7 +1581,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>39</v>
       </c>
@@ -1339,7 +1591,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>40</v>
       </c>
@@ -1349,7 +1601,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>41</v>
       </c>
@@ -1359,7 +1611,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>42</v>
       </c>
@@ -1369,7 +1621,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>43</v>
       </c>
@@ -1379,7 +1631,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>44</v>
       </c>
@@ -1389,7 +1641,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>45</v>
       </c>
@@ -1420,7 +1672,13 @@
       <c r="F50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>

--- a/ERP MVC/Controle Dev.xlsx
+++ b/ERP MVC/Controle Dev.xlsx
@@ -527,6 +527,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -534,9 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,24 +837,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -883,7 +883,7 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -906,7 +906,7 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -971,7 +971,7 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="8" t="s">
         <v>39</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1036,7 +1036,7 @@
       <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1101,7 +1101,7 @@
       <c r="A14" s="13">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="A15" s="13">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="A16" s="13">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1166,7 +1166,7 @@
       <c r="A17" s="13">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="A18" s="13">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="8" t="s">
         <v>39</v>
       </c>
@@ -1205,10 +1205,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1224,10 +1224,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="17"/>
+      <c r="A20" s="13">
+        <v>15</v>
+      </c>
+      <c r="B20" s="18"/>
       <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
@@ -1241,10 +1241,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="17"/>
+      <c r="A21" s="13">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -1258,10 +1258,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="13">
+        <v>15</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1277,10 +1277,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>20</v>
-      </c>
-      <c r="B23" s="17"/>
+      <c r="A23" s="13">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
@@ -1294,10 +1294,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="17"/>
+      <c r="A24" s="13">
+        <v>15</v>
+      </c>
+      <c r="B24" s="18"/>
       <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
@@ -1311,10 +1311,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>22</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="12">
+        <v>4</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1330,10 +1330,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>23</v>
-      </c>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="12">
+        <v>5</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1349,10 +1349,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>24</v>
-      </c>
-      <c r="B27" s="17"/>
+      <c r="A27" s="12">
+        <v>6</v>
+      </c>
+      <c r="B27" s="18"/>
       <c r="C27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1366,10 +1366,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="17"/>
+      <c r="A28" s="12">
+        <v>5</v>
+      </c>
+      <c r="B28" s="18"/>
       <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
@@ -1383,10 +1383,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>26</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="13">
+        <v>15</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1402,10 +1402,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>27</v>
-      </c>
-      <c r="B30" s="17"/>
+      <c r="A30" s="13">
+        <v>15</v>
+      </c>
+      <c r="B30" s="18"/>
       <c r="C30" s="8" t="s">
         <v>38</v>
       </c>
@@ -1419,10 +1419,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>28</v>
-      </c>
-      <c r="B31" s="17"/>
+      <c r="A31" s="13">
+        <v>15</v>
+      </c>
+      <c r="B31" s="18"/>
       <c r="C31" s="8" t="s">
         <v>39</v>
       </c>
@@ -1436,10 +1436,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>29</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="12">
+        <v>4</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1455,10 +1455,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>30</v>
-      </c>
-      <c r="B33" s="17"/>
+      <c r="A33" s="12">
+        <v>5</v>
+      </c>
+      <c r="B33" s="18"/>
       <c r="C33" s="8" t="s">
         <v>38</v>
       </c>
@@ -1472,10 +1472,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>31</v>
-      </c>
-      <c r="B34" s="17"/>
+      <c r="A34" s="12">
+        <v>6</v>
+      </c>
+      <c r="B34" s="18"/>
       <c r="C34" s="8" t="s">
         <v>39</v>
       </c>
@@ -1489,10 +1489,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>32</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -1508,10 +1508,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>33</v>
-      </c>
-      <c r="B36" s="17"/>
+      <c r="A36" s="12">
+        <v>5</v>
+      </c>
+      <c r="B36" s="18"/>
       <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
@@ -1525,10 +1525,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>34</v>
-      </c>
-      <c r="B37" s="17"/>
+      <c r="A37" s="12">
+        <v>6</v>
+      </c>
+      <c r="B37" s="18"/>
       <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
@@ -1673,12 +1673,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1686,6 +1680,12 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ERP MVC/Controle Dev.xlsx
+++ b/ERP MVC/Controle Dev.xlsx
@@ -405,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +454,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -482,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -537,6 +543,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,55 +1354,55 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="21">
         <v>5</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="10">
+      <c r="D26" s="24"/>
+      <c r="E26" s="25">
         <v>41698</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="21">
         <v>6</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10">
+      <c r="D27" s="24"/>
+      <c r="E27" s="25">
         <v>41698</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="26"/>
+      <c r="G27" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="21">
         <v>5</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="10">
+      <c r="D28" s="24"/>
+      <c r="E28" s="25">
         <v>41698</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1673,6 +1697,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
@@ -1680,12 +1710,6 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
